--- a/data/base.xlsx
+++ b/data/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulochade/Documents/projects/enter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC19A92-70C0-2C4D-88F3-1028D3261C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2521C9-AD4C-4144-A217-08B1F371DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36660" yWindow="7640" windowWidth="28040" windowHeight="21040" xr2:uid="{FBFB5545-84BC-004F-B918-FB2579B1CE48}"/>
+    <workbookView xWindow="26560" yWindow="4960" windowWidth="28040" windowHeight="21040" xr2:uid="{FBFB5545-84BC-004F-B918-FB2579B1CE48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
